--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cfh-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cfh-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.573304666666666</v>
+        <v>0.5491146666666666</v>
       </c>
       <c r="H2">
-        <v>4.719913999999999</v>
+        <v>1.647344</v>
       </c>
       <c r="I2">
-        <v>0.0222793836237684</v>
+        <v>0.006868658684314029</v>
       </c>
       <c r="J2">
-        <v>0.0222793836237684</v>
+        <v>0.006868658684314029</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>66.38494866666666</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N2">
-        <v>199.154846</v>
+        <v>107.04732</v>
       </c>
       <c r="O2">
-        <v>0.4171200956172241</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.4171200956172242</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>104.4437495336937</v>
+        <v>19.59375114645333</v>
       </c>
       <c r="R2">
-        <v>939.9937458032438</v>
+        <v>176.34376031808</v>
       </c>
       <c r="S2">
-        <v>0.009293178627439093</v>
+        <v>0.006868658684314029</v>
       </c>
       <c r="T2">
-        <v>0.009293178627439096</v>
+        <v>0.006868658684314029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.573304666666666</v>
+        <v>36.796554</v>
       </c>
       <c r="H3">
-        <v>4.719913999999999</v>
+        <v>110.389662</v>
       </c>
       <c r="I3">
-        <v>0.0222793836237684</v>
+        <v>0.4602735740408745</v>
       </c>
       <c r="J3">
-        <v>0.0222793836237684</v>
+        <v>0.4602735740408745</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>92.76573566666667</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N3">
-        <v>278.297207</v>
+        <v>107.04732</v>
       </c>
       <c r="O3">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>145.9487648311331</v>
+        <v>1312.99083031176</v>
       </c>
       <c r="R3">
-        <v>1313.538883480198</v>
+        <v>11816.91747280584</v>
       </c>
       <c r="S3">
-        <v>0.01298620499632931</v>
+        <v>0.4602735740408745</v>
       </c>
       <c r="T3">
-        <v>0.01298620499632931</v>
+        <v>0.4602735740408745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.796554</v>
+        <v>19.686315</v>
       </c>
       <c r="H4">
-        <v>110.389662</v>
+        <v>59.058945</v>
       </c>
       <c r="I4">
-        <v>0.5210717033819111</v>
+        <v>0.2462483461017703</v>
       </c>
       <c r="J4">
-        <v>0.5210717033819111</v>
+        <v>0.2462483461017702</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>66.38494866666666</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N4">
-        <v>199.154846</v>
+        <v>107.04732</v>
       </c>
       <c r="O4">
-        <v>0.4171200956172241</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.4171200956172242</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>2442.737348400228</v>
+        <v>702.4557538085999</v>
       </c>
       <c r="R4">
-        <v>21984.63613560205</v>
+        <v>6322.101784277399</v>
       </c>
       <c r="S4">
-        <v>0.2173494787380926</v>
+        <v>0.2462483461017703</v>
       </c>
       <c r="T4">
-        <v>0.2173494787380926</v>
+        <v>0.2462483461017702</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.796554</v>
+        <v>22.91297966666667</v>
       </c>
       <c r="H5">
-        <v>110.389662</v>
+        <v>68.738939</v>
       </c>
       <c r="I5">
-        <v>0.5210717033819111</v>
+        <v>0.2866094211730412</v>
       </c>
       <c r="J5">
-        <v>0.5210717033819111</v>
+        <v>0.2866094211730412</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.76573566666667</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N5">
-        <v>278.297207</v>
+        <v>107.04732</v>
       </c>
       <c r="O5">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>3413.459401808226</v>
+        <v>817.5910221770532</v>
       </c>
       <c r="R5">
-        <v>30721.13461627404</v>
+        <v>7358.319199593479</v>
       </c>
       <c r="S5">
-        <v>0.3037222246438185</v>
+        <v>0.2866094211730412</v>
       </c>
       <c r="T5">
-        <v>0.3037222246438185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>14.56572533333333</v>
-      </c>
-      <c r="H6">
-        <v>43.69717599999999</v>
-      </c>
-      <c r="I6">
-        <v>0.2062635351786761</v>
-      </c>
-      <c r="J6">
-        <v>0.2062635351786761</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>66.38494866666666</v>
-      </c>
-      <c r="N6">
-        <v>199.154846</v>
-      </c>
-      <c r="O6">
-        <v>0.4171200956172241</v>
-      </c>
-      <c r="P6">
-        <v>0.4171200956172242</v>
-      </c>
-      <c r="Q6">
-        <v>966.9449285460993</v>
-      </c>
-      <c r="R6">
-        <v>8702.504356914895</v>
-      </c>
-      <c r="S6">
-        <v>0.08603666551607604</v>
-      </c>
-      <c r="T6">
-        <v>0.08603666551607604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>14.56572533333333</v>
-      </c>
-      <c r="H7">
-        <v>43.69717599999999</v>
-      </c>
-      <c r="I7">
-        <v>0.2062635351786761</v>
-      </c>
-      <c r="J7">
-        <v>0.2062635351786761</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>92.76573566666667</v>
-      </c>
-      <c r="N7">
-        <v>278.297207</v>
-      </c>
-      <c r="O7">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="P7">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="Q7">
-        <v>1351.20022606527</v>
-      </c>
-      <c r="R7">
-        <v>12160.80203458743</v>
-      </c>
-      <c r="S7">
-        <v>0.1202268696626</v>
-      </c>
-      <c r="T7">
-        <v>0.1202268696626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>17.68148033333334</v>
-      </c>
-      <c r="H8">
-        <v>53.04444100000001</v>
-      </c>
-      <c r="I8">
-        <v>0.2503853778156445</v>
-      </c>
-      <c r="J8">
-        <v>0.2503853778156445</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>66.38494866666666</v>
-      </c>
-      <c r="N8">
-        <v>199.154846</v>
-      </c>
-      <c r="O8">
-        <v>0.4171200956172241</v>
-      </c>
-      <c r="P8">
-        <v>0.4171200956172242</v>
-      </c>
-      <c r="Q8">
-        <v>1173.78416427901</v>
-      </c>
-      <c r="R8">
-        <v>10564.05747851109</v>
-      </c>
-      <c r="S8">
-        <v>0.1044407727356164</v>
-      </c>
-      <c r="T8">
-        <v>0.1044407727356164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>17.68148033333334</v>
-      </c>
-      <c r="H9">
-        <v>53.04444100000001</v>
-      </c>
-      <c r="I9">
-        <v>0.2503853778156445</v>
-      </c>
-      <c r="J9">
-        <v>0.2503853778156445</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>92.76573566666667</v>
-      </c>
-      <c r="N9">
-        <v>278.297207</v>
-      </c>
-      <c r="O9">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="P9">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="Q9">
-        <v>1640.235530797366</v>
-      </c>
-      <c r="R9">
-        <v>14762.11977717629</v>
-      </c>
-      <c r="S9">
-        <v>0.145944605080028</v>
-      </c>
-      <c r="T9">
-        <v>0.145944605080028</v>
+        <v>0.2866094211730412</v>
       </c>
     </row>
   </sheetData>
